--- a/LecturerReports/junleiliew_gmail_com.xlsx
+++ b/LecturerReports/junleiliew_gmail_com.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewj\Documents\UiPath\Project\LecturerReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A596F96-3BB9-4003-8C74-ED66FE223F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E4F57-2D82-4A5E-BD24-1BDFD708BECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{24B45D76-FBF7-4140-9375-3915C231A9F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{24B45D76-FBF7-4140-9375-3915C231A9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="1B_Microcontroller" sheetId="4" r:id="rId1"/>
@@ -757,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280AEB02-D54E-443E-99CB-5143406DFE9F}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1903,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B64275-EE47-4EF2-B873-9628FDD5AC24}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/LecturerReports/junleiliew_gmail_com.xlsx
+++ b/LecturerReports/junleiliew_gmail_com.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewj\Documents\UiPath\Project\LecturerReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E4F57-2D82-4A5E-BD24-1BDFD708BECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB08FA7D-FE14-42B8-96F0-54E86522C0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{24B45D76-FBF7-4140-9375-3915C231A9F2}"/>
   </bookViews>
